--- a/data/Robotics_Companies_Careers.xlsx
+++ b/data/Robotics_Companies_Careers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Documents\job-search-agent\job-search-agent\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\git repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43BCE72F-A768-4108-BF60-A2F9FD906109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E27F21F-8993-42A9-9C70-E14D1D7D4E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Robotics Companies" sheetId="1" r:id="rId1"/>
@@ -1052,8 +1052,8 @@
   <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="A25:E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Robotics_Companies_Careers.xlsx
+++ b/data/Robotics_Companies_Careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\git repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E27F21F-8993-42A9-9C70-E14D1D7D4E1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F223F0A7-0CB1-467D-A418-7E30A92DB5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Robotics Companies" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="189">
   <si>
     <t>#</t>
   </si>
@@ -196,9 +196,6 @@
     <t>https://www.siemens-healthineers.com/careers</t>
   </si>
   <si>
-    <t>Anduril Industries</t>
-  </si>
-  <si>
     <t>Defense &amp; Military</t>
   </si>
   <si>
@@ -538,9 +535,6 @@
     <t>https://boards.greenhouse.io/embed/job_board?for=vicarioussurgical</t>
   </si>
   <si>
-    <t>https://boards.greenhouse.io/embed/job_board?for=andurilindustries</t>
-  </si>
-  <si>
     <t>https://1x.recruitee.com/</t>
   </si>
   <si>
@@ -593,6 +587,15 @@
   </si>
   <si>
     <t>https://careers.smartrecruiters.com/intuitive</t>
+  </si>
+  <si>
+    <t>https://www.intrinsic.ai/careers#roles</t>
+  </si>
+  <si>
+    <t>Johnson &amp; Johnson</t>
+  </si>
+  <si>
+    <t>https://www.careers.jnj.com/en/jobs/?search=&amp;pagesize=20#results</t>
   </si>
 </sst>
 </file>
@@ -681,7 +684,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -704,12 +707,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD0D0D0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD0D0D0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -746,6 +760,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1049,11 +1069,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E25" sqref="A25:E25"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1107,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
@@ -1192,7 +1212,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
@@ -1226,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>22</v>
@@ -1277,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>27</v>
@@ -1294,7 +1314,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>27</v>
@@ -1311,7 +1331,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>27</v>
@@ -1328,7 +1348,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>27</v>
@@ -1345,7 +1365,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>27</v>
@@ -1362,7 +1382,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>27</v>
@@ -1447,7 +1467,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>44</v>
@@ -1481,7 +1501,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>44</v>
@@ -1532,7 +1552,7 @@
         <v>52</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>44</v>
@@ -1563,13 +1583,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>8</v>
@@ -1580,13 +1600,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>58</v>
-      </c>
       <c r="D31" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>8</v>
@@ -1597,13 +1617,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="D32" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>61</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>8</v>
@@ -1614,13 +1634,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="D33" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>8</v>
@@ -1631,13 +1651,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>66</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>8</v>
@@ -1648,13 +1668,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>8</v>
@@ -1665,13 +1685,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>8</v>
@@ -1682,13 +1702,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>8</v>
@@ -1699,13 +1719,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>8</v>
@@ -1716,13 +1736,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D39" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>8</v>
@@ -1733,13 +1753,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="C40" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="E40" s="6" t="s">
         <v>8</v>
@@ -1750,13 +1770,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>152</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>80</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>8</v>
@@ -1767,13 +1787,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="C42" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>8</v>
@@ -1784,13 +1804,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="10" t="s">
         <v>83</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>8</v>
@@ -1801,13 +1821,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="4" t="s">
-        <v>86</v>
-      </c>
       <c r="D44" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>8</v>
@@ -1818,13 +1838,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>8</v>
@@ -1835,13 +1855,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="6" t="s">
         <v>8</v>
@@ -1852,13 +1872,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>90</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>8</v>
@@ -1869,13 +1889,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C48" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>8</v>
@@ -1886,13 +1906,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>8</v>
@@ -1903,16 +1923,16 @@
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="D50" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="16" t="s">
         <v>95</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
@@ -1920,16 +1940,16 @@
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="C51" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>98</v>
-      </c>
       <c r="E51" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
@@ -1937,16 +1957,16 @@
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
@@ -1954,16 +1974,16 @@
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -1971,16 +1991,16 @@
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C54" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="D54" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="D54" s="15" t="s">
-        <v>103</v>
-      </c>
       <c r="E54" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
@@ -1988,16 +2008,16 @@
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="D55" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="D55" s="15" t="s">
-        <v>106</v>
-      </c>
       <c r="E55" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
@@ -2005,16 +2025,16 @@
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D56" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>108</v>
-      </c>
       <c r="E56" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
@@ -2022,16 +2042,16 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C57" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>110</v>
-      </c>
       <c r="E57" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
@@ -2039,16 +2059,16 @@
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
@@ -2056,16 +2076,16 @@
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C59" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="C59" s="14" t="s">
-        <v>113</v>
-      </c>
       <c r="D59" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
@@ -2073,16 +2093,16 @@
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="C60" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="C60" s="14" t="s">
-        <v>115</v>
-      </c>
       <c r="D60" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
@@ -2090,16 +2110,16 @@
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C61" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="D61" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>118</v>
-      </c>
       <c r="E61" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
@@ -2107,16 +2127,16 @@
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C62" s="14" t="s">
         <v>119</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>120</v>
       </c>
       <c r="D62" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
@@ -2124,16 +2144,16 @@
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D63" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="C63" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>123</v>
-      </c>
       <c r="E63" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
@@ -2141,16 +2161,16 @@
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="D64" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="D64" s="15" t="s">
-        <v>126</v>
-      </c>
       <c r="E64" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
@@ -2158,16 +2178,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
@@ -2175,16 +2195,16 @@
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="C66" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>129</v>
-      </c>
       <c r="E66" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
@@ -2192,16 +2212,16 @@
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C67" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>131</v>
-      </c>
       <c r="D67" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
@@ -2209,16 +2229,16 @@
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="C68" s="14" t="s">
-        <v>133</v>
-      </c>
       <c r="D68" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -2226,16 +2246,16 @@
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D69" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="C69" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>135</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
@@ -2243,16 +2263,16 @@
         <v>69</v>
       </c>
       <c r="B70" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C70" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="C70" s="14" t="s">
-        <v>137</v>
-      </c>
       <c r="D70" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
@@ -2260,16 +2280,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
@@ -2277,16 +2297,16 @@
         <v>71</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>27</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
@@ -2294,16 +2314,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="D73" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D73" s="15" t="s">
-        <v>142</v>
-      </c>
       <c r="E73" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
@@ -2311,16 +2331,30 @@
         <v>73</v>
       </c>
       <c r="B74" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="C74" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>144</v>
-      </c>
       <c r="D74" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="22">
+        <v>74</v>
+      </c>
+      <c r="B75" s="23" t="s">
+        <v>187</v>
+      </c>
+      <c r="C75" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="25" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2354,51 +2388,52 @@
     <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C30" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="C31" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C32" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C33" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C34" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C35" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C36" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C37" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C38" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C39" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C40" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C41" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C42" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C43" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C44" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C45" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C46" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C47" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C49" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C50" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C51" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C52" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C53" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C54" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C55" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C56" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C57" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C58" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C59" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C60" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C61" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C62" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C63" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C64" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C65" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C66" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C67" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C68" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C69" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C70" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C71" r:id="rId69" location="/" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C72" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C73" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C74" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C48" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="C40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C71" r:id="rId68" location="/" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C48" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C30" r:id="rId73" location="roles" xr:uid="{51FE209E-7534-472C-9F97-7C02B21FA407}"/>
+    <hyperlink ref="C75" r:id="rId74" location="results" xr:uid="{AB71A0E5-4BD4-4277-B23B-B1A085E22A2B}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2418,12 +2453,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B3">
         <v>74</v>
@@ -2431,7 +2466,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B4">
         <v>48</v>
@@ -2439,7 +2474,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B5">
         <v>26</v>
@@ -2447,7 +2482,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -2476,7 +2511,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -2484,7 +2519,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -2492,7 +2527,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2500,7 +2535,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2508,7 +2543,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2524,7 +2559,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2532,7 +2567,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2540,7 +2575,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2548,7 +2583,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2556,7 +2591,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2572,7 +2607,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2580,7 +2615,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2588,7 +2623,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2596,7 +2631,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2604,7 +2639,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2612,7 +2647,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2620,7 +2655,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2628,7 +2663,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2636,7 +2671,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2644,7 +2679,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2652,7 +2687,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2660,7 +2695,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2668,7 +2703,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2676,7 +2711,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2684,7 +2719,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B37">
         <v>1</v>

--- a/data/Robotics_Companies_Careers.xlsx
+++ b/data/Robotics_Companies_Careers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\git repo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F223F0A7-0CB1-467D-A418-7E30A92DB5F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B71D4C0-651E-43E8-97C2-BE9D4358783D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Robotics Companies" sheetId="1" r:id="rId1"/>
@@ -1072,8 +1072,8 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/Robotics_Companies_Careers.xlsx
+++ b/data/Robotics_Companies_Careers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\git repo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\job-search-agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B71D4C0-651E-43E8-97C2-BE9D4358783D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D7E260-A8FE-4FD0-BBD2-C26AD3432CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -460,9 +460,6 @@
     <t>Stack AV</t>
   </si>
   <si>
-    <t>https://www.stackav.com/careers</t>
-  </si>
-  <si>
     <t>Robotics Companies - Summary</t>
   </si>
   <si>
@@ -596,6 +593,9 @@
   </si>
   <si>
     <t>https://www.careers.jnj.com/en/jobs/?search=&amp;pagesize=20#results</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/stackav</t>
   </si>
 </sst>
 </file>
@@ -1072,8 +1072,8 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1127,7 +1127,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
@@ -1212,7 +1212,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
@@ -1246,7 +1246,7 @@
         <v>21</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>22</v>
@@ -1297,7 +1297,7 @@
         <v>28</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>27</v>
@@ -1314,7 +1314,7 @@
         <v>29</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>27</v>
@@ -1331,7 +1331,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>27</v>
@@ -1348,7 +1348,7 @@
         <v>31</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>27</v>
@@ -1365,7 +1365,7 @@
         <v>32</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>27</v>
@@ -1382,7 +1382,7 @@
         <v>33</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>27</v>
@@ -1467,7 +1467,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D23" s="10" t="s">
         <v>44</v>
@@ -1501,7 +1501,7 @@
         <v>47</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>44</v>
@@ -1552,7 +1552,7 @@
         <v>52</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>44</v>
@@ -1586,7 +1586,7 @@
         <v>73</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>75</v>
@@ -1654,7 +1654,7 @@
         <v>64</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>65</v>
@@ -1671,7 +1671,7 @@
         <v>66</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D35" s="10" t="s">
         <v>65</v>
@@ -1688,7 +1688,7 @@
         <v>67</v>
       </c>
       <c r="C36" s="19" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>65</v>
@@ -1705,7 +1705,7 @@
         <v>68</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D37" s="10" t="s">
         <v>69</v>
@@ -1756,7 +1756,7 @@
         <v>76</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>77</v>
@@ -1773,7 +1773,7 @@
         <v>78</v>
       </c>
       <c r="C41" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>79</v>
@@ -1790,7 +1790,7 @@
         <v>80</v>
       </c>
       <c r="C42" s="19" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>81</v>
@@ -1807,7 +1807,7 @@
         <v>82</v>
       </c>
       <c r="C43" s="20" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D43" s="10" t="s">
         <v>83</v>
@@ -1841,7 +1841,7 @@
         <v>86</v>
       </c>
       <c r="C45" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D45" s="10" t="s">
         <v>79</v>
@@ -1858,7 +1858,7 @@
         <v>87</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>79</v>
@@ -1875,7 +1875,7 @@
         <v>88</v>
       </c>
       <c r="C47" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D47" s="10" t="s">
         <v>89</v>
@@ -1892,7 +1892,7 @@
         <v>90</v>
       </c>
       <c r="C48" s="19" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>91</v>
@@ -1909,7 +1909,7 @@
         <v>92</v>
       </c>
       <c r="C49" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D49" s="10" t="s">
         <v>89</v>
@@ -1943,7 +1943,7 @@
         <v>96</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="15" t="s">
         <v>97</v>
@@ -1960,7 +1960,7 @@
         <v>98</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D52" s="15" t="s">
         <v>69</v>
@@ -1977,7 +1977,7 @@
         <v>99</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" s="15" t="s">
         <v>77</v>
@@ -2028,7 +2028,7 @@
         <v>106</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="15" t="s">
         <v>107</v>
@@ -2045,7 +2045,7 @@
         <v>108</v>
       </c>
       <c r="C57" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" s="15" t="s">
         <v>109</v>
@@ -2062,7 +2062,7 @@
         <v>110</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D58" s="15" t="s">
         <v>77</v>
@@ -2147,7 +2147,7 @@
         <v>121</v>
       </c>
       <c r="C63" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D63" s="15" t="s">
         <v>122</v>
@@ -2181,7 +2181,7 @@
         <v>126</v>
       </c>
       <c r="C65" s="21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D65" s="15" t="s">
         <v>65</v>
@@ -2198,7 +2198,7 @@
         <v>127</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D66" s="15" t="s">
         <v>128</v>
@@ -2249,7 +2249,7 @@
         <v>133</v>
       </c>
       <c r="C69" s="21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D69" s="15" t="s">
         <v>134</v>
@@ -2283,7 +2283,7 @@
         <v>137</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D71" s="15" t="s">
         <v>27</v>
@@ -2300,7 +2300,7 @@
         <v>138</v>
       </c>
       <c r="C72" s="21" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D72" s="15" t="s">
         <v>27</v>
@@ -2333,8 +2333,8 @@
       <c r="B74" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="C74" s="14" t="s">
-        <v>143</v>
+      <c r="C74" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="D74" s="15" t="s">
         <v>141</v>
@@ -2348,10 +2348,10 @@
         <v>74</v>
       </c>
       <c r="B75" s="23" t="s">
+        <v>186</v>
+      </c>
+      <c r="C75" s="24" t="s">
         <v>187</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>188</v>
       </c>
       <c r="D75" s="25" t="s">
         <v>44</v>
@@ -2453,12 +2453,12 @@
   <sheetData>
     <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B3">
         <v>74</v>
@@ -2466,7 +2466,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B4">
         <v>48</v>
@@ -2474,7 +2474,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5">
         <v>26</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">

--- a/data/Robotics_Companies_Careers.xlsx
+++ b/data/Robotics_Companies_Careers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\job-search-agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6D7E260-A8FE-4FD0-BBD2-C26AD3432CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5714A0-967A-44E1-8DF6-8D4B0D93F1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Summary" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Robotics Companies'!$A$1:$E$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Robotics Companies'!$A$1:$E$73</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="188">
   <si>
     <t>#</t>
   </si>
@@ -64,27 +64,15 @@
     <t>Locus Robotics</t>
   </si>
   <si>
-    <t>https://locusrobotics.com/about-us/careers/</t>
-  </si>
-  <si>
     <t>Berkshire Grey</t>
   </si>
   <si>
-    <t>https://www.berkshiregrey.com/careers/</t>
-  </si>
-  <si>
     <t>Dematic</t>
   </si>
   <si>
-    <t>https://www.dematic.com/en-us/about/careers/</t>
-  </si>
-  <si>
     <t>GreyOrange</t>
   </si>
   <si>
-    <t>https://www.greyorange.com/careers/</t>
-  </si>
-  <si>
     <t>Nimble Robotics</t>
   </si>
   <si>
@@ -109,9 +97,6 @@
     <t>Waymo</t>
   </si>
   <si>
-    <t>https://waymo.com/careers/</t>
-  </si>
-  <si>
     <t>Autonomous Vehicles</t>
   </si>
   <si>
@@ -244,18 +229,12 @@
     <t>Boston Dynamics</t>
   </si>
   <si>
-    <t>https://bostondynamics.com/careers/</t>
-  </si>
-  <si>
     <t>Industrial / Legged Robots</t>
   </si>
   <si>
     <t>Intrinsic (Alphabet)</t>
   </si>
   <si>
-    <t>https://www.intrinsic.ai/careers</t>
-  </si>
-  <si>
     <t>Robotics Software Platform</t>
   </si>
   <si>
@@ -403,9 +382,6 @@
     <t>Gecko Robotics</t>
   </si>
   <si>
-    <t>https://www.geckorobotics.com/careers</t>
-  </si>
-  <si>
     <t>Inspection Robotics</t>
   </si>
   <si>
@@ -451,9 +427,6 @@
     <t>Plus (PlusAI)</t>
   </si>
   <si>
-    <t>https://plus.ai/careers/</t>
-  </si>
-  <si>
     <t>Autonomous Trucking</t>
   </si>
   <si>
@@ -586,9 +559,6 @@
     <t>https://careers.smartrecruiters.com/intuitive</t>
   </si>
   <si>
-    <t>https://www.intrinsic.ai/careers#roles</t>
-  </si>
-  <si>
     <t>Johnson &amp; Johnson</t>
   </si>
   <si>
@@ -596,6 +566,33 @@
   </si>
   <si>
     <t>https://job-boards.greenhouse.io/stackav</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/embed/job_board?for=intrinsicrobotics</t>
+  </si>
+  <si>
+    <t>https://jobs.lever.co/plus-2</t>
+  </si>
+  <si>
+    <t>https://jobs.ashbyhq.com/gecko-robotics</t>
+  </si>
+  <si>
+    <t>https://bostondynamics.wd1.myworkdayjobs.com/Boston_Dynamics</t>
+  </si>
+  <si>
+    <t>https://job-boards.greenhouse.io/locusrobotics</t>
+  </si>
+  <si>
+    <t>https://berkshiregrey.bamboohr.com/careers/</t>
+  </si>
+  <si>
+    <t>https://kiongroup.wd3.myworkdayjobs.com/KION_SCS</t>
+  </si>
+  <si>
+    <t>https://careers.greyorange.com/greyorange/</t>
+  </si>
+  <si>
+    <t>https://boards.greenhouse.io/embed/job_board?for=Waymo</t>
   </si>
 </sst>
 </file>
@@ -723,7 +720,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -746,9 +743,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -760,9 +754,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1069,11 +1060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1126,8 +1117,8 @@
       <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="20" t="s">
-        <v>183</v>
+      <c r="C3" s="19" t="s">
+        <v>174</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>7</v>
@@ -1143,8 +1134,8 @@
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
+      <c r="C4" s="18" t="s">
+        <v>183</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>7</v>
@@ -1158,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>184</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>7</v>
@@ -1175,10 +1166,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>15</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>185</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -1192,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>186</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>7</v>
@@ -1209,10 +1200,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>159</v>
+        <v>14</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>7</v>
@@ -1226,10 +1217,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>7</v>
@@ -1243,13 +1234,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>148</v>
+        <v>17</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>139</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>8</v>
@@ -1260,10 +1251,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>7</v>
@@ -1277,13 +1268,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>187</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>8</v>
@@ -1294,13 +1285,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>163</v>
+        <v>23</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>154</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>8</v>
@@ -1311,13 +1302,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>164</v>
+        <v>24</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>8</v>
@@ -1328,13 +1319,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>160</v>
+        <v>25</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>151</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>8</v>
@@ -1345,13 +1336,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>165</v>
+        <v>26</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>8</v>
@@ -1362,13 +1353,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>162</v>
+        <v>27</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>153</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>8</v>
@@ -1379,13 +1370,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>161</v>
+        <v>28</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>8</v>
@@ -1396,13 +1387,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E19" s="11" t="s">
         <v>8</v>
@@ -1413,13 +1404,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>8</v>
@@ -1430,13 +1421,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>8</v>
@@ -1447,13 +1438,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>8</v>
@@ -1464,13 +1455,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>184</v>
+        <v>38</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>175</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>8</v>
@@ -1481,13 +1472,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>8</v>
@@ -1498,13 +1489,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>149</v>
+        <v>42</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>140</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>8</v>
@@ -1515,13 +1506,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>8</v>
@@ -1532,13 +1523,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>8</v>
@@ -1549,13 +1540,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="19" t="s">
-        <v>166</v>
+        <v>47</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>8</v>
@@ -1566,13 +1557,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="E29" s="11" t="s">
         <v>8</v>
@@ -1583,13 +1574,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>185</v>
+        <v>67</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>179</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>8</v>
@@ -1600,13 +1591,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>8</v>
@@ -1617,13 +1608,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>8</v>
@@ -1634,13 +1625,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="E33" s="11" t="s">
         <v>8</v>
@@ -1651,13 +1642,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" s="19" t="s">
-        <v>167</v>
+        <v>59</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>8</v>
@@ -1668,13 +1659,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>169</v>
+        <v>61</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>160</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E35" s="11" t="s">
         <v>8</v>
@@ -1685,66 +1676,66 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="19" t="s">
-        <v>168</v>
+        <v>62</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="D36" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="7">
-        <v>36</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="C38" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E37" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>37</v>
-      </c>
-      <c r="B38" s="3" t="s">
+      <c r="C39" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="7">
-        <v>38</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1752,16 +1743,16 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
-        <v>76</v>
+      <c r="B40" s="8" t="s">
+        <v>71</v>
       </c>
       <c r="C40" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E40" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E40" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1769,16 +1760,16 @@
       <c r="A41" s="7">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E41" s="11" t="s">
+      <c r="B41" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1786,67 +1777,67 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>43</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <v>42</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D43" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
-        <v>43</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="7">
-        <v>44</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="E45" s="11" t="s">
+      <c r="C45" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E45" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1854,16 +1845,16 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>87</v>
+      <c r="B46" s="8" t="s">
+        <v>81</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E46" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" s="11" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1871,16 +1862,16 @@
       <c r="A47" s="7">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C47" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="11" t="s">
+      <c r="B47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E47" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1888,477 +1879,460 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E48" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>49</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="E50" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>52</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>55</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>56</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>57</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>58</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D60" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>60</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>61</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D62" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>62</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>63</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D64" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="7">
+        <v>64</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>65</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>66</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <v>67</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C68" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="D68" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>68</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>69</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C70" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D70" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="7">
+        <v>70</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C71" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>71</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="D72" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>72</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="7">
+        <v>73</v>
+      </c>
+      <c r="B74" s="21" t="s">
         <v>176</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="7">
-        <v>48</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C49" s="20" t="s">
+      <c r="C74" s="22" t="s">
         <v>177</v>
       </c>
-      <c r="D49" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
-        <v>49</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="12">
-        <v>50</v>
-      </c>
-      <c r="B51" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C51" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="12">
-        <v>51</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="C52" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="12">
-        <v>52</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C53" s="21" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="12">
-        <v>53</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C54" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="12">
-        <v>54</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D55" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="12">
-        <v>55</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C56" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="D56" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="12">
-        <v>56</v>
-      </c>
-      <c r="B57" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C57" s="21" t="s">
-        <v>181</v>
-      </c>
-      <c r="D57" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="12">
-        <v>57</v>
-      </c>
-      <c r="B58" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C58" s="21" t="s">
-        <v>182</v>
-      </c>
-      <c r="D58" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="12">
-        <v>58</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C59" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="12">
-        <v>59</v>
-      </c>
-      <c r="B60" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>114</v>
-      </c>
-      <c r="D60" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="12">
-        <v>60</v>
-      </c>
-      <c r="B61" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C61" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="12">
-        <v>61</v>
-      </c>
-      <c r="B62" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="12">
-        <v>62</v>
-      </c>
-      <c r="B63" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E63" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="12">
-        <v>63</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="D64" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="E64" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="12">
-        <v>64</v>
-      </c>
-      <c r="B65" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="D65" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="12">
-        <v>65</v>
-      </c>
-      <c r="B66" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="D66" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E66" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="12">
-        <v>66</v>
-      </c>
-      <c r="B67" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="C67" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="D67" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E67" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="12">
-        <v>67</v>
-      </c>
-      <c r="B68" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="D68" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="E68" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="12">
-        <v>68</v>
-      </c>
-      <c r="B69" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="D69" s="15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E69" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="12">
-        <v>69</v>
-      </c>
-      <c r="B70" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D70" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="12">
-        <v>70</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C71" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D71" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="12">
-        <v>71</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="C72" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="D72" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="12">
-        <v>72</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="C73" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D73" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="12">
-        <v>73</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D74" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="22">
-        <v>74</v>
-      </c>
-      <c r="B75" s="23" t="s">
-        <v>186</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>187</v>
-      </c>
-      <c r="D75" s="25" t="s">
-        <v>44</v>
+      <c r="D74" s="23" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E74" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E73" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -2370,70 +2344,69 @@
     <hyperlink ref="C9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
     <hyperlink ref="C11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="C21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="C22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="C23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="C24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="C25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="C26" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="C27" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="C28" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C29" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="C31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="C32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="C33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="C34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="C35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="C36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="C37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="C38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="C39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="C40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="C41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="C42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="C43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="C44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="C45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="C46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="C47" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="C49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="C50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="C51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="C52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="C53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="C54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="C55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="C56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="C57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="C58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="C59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="C60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="C61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="C62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="C63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="C64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="C65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="C66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="C67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="C68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="C69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="C70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="C71" r:id="rId68" location="/" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="C72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="C73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="C74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C48" r:id="rId72" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="C30" r:id="rId73" location="roles" xr:uid="{51FE209E-7534-472C-9F97-7C02B21FA407}"/>
-    <hyperlink ref="C75" r:id="rId74" location="results" xr:uid="{AB71A0E5-4BD4-4277-B23B-B1A085E22A2B}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="C23" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="C25" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="C26" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="C27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="C28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="C29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="C31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="C32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="C33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="C34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="C35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="C36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="C37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="C38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="C39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="C40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="C41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="C42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="C43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="C44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="C45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="C46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="C48" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="C49" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="C50" r:id="rId46" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="C51" r:id="rId47" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="C52" r:id="rId48" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="C53" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="C54" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="C55" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="C56" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="C57" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="C58" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="C59" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="C60" r:id="rId56" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="C61" r:id="rId57" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="C62" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="C63" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="C64" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="C65" r:id="rId61" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="C66" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="C67" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="C68" r:id="rId64" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="C69" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="C70" r:id="rId66" location="/" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="C71" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="C72" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="C73" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C47" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="C30" r:id="rId71" xr:uid="{51FE209E-7534-472C-9F97-7C02B21FA407}"/>
+    <hyperlink ref="C74" r:id="rId72" location="results" xr:uid="{AB71A0E5-4BD4-4277-B23B-B1A085E22A2B}"/>
+    <hyperlink ref="C12" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2452,13 +2425,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>143</v>
+      <c r="A1" s="16" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B3">
         <v>74</v>
@@ -2466,7 +2439,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="B4">
         <v>48</v>
@@ -2474,20 +2447,20 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B5">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>147</v>
+      <c r="A7" s="17" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>12</v>
@@ -2503,7 +2476,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -2511,7 +2484,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -2519,7 +2492,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -2527,7 +2500,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -2535,7 +2508,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -2543,7 +2516,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -2551,7 +2524,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -2559,7 +2532,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>2</v>
@@ -2567,7 +2540,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2575,7 +2548,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -2583,7 +2556,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -2591,7 +2564,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -2599,7 +2572,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2607,7 +2580,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -2615,7 +2588,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -2623,7 +2596,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -2631,7 +2604,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -2639,7 +2612,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -2647,7 +2620,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -2655,7 +2628,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -2663,7 +2636,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -2671,7 +2644,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -2679,7 +2652,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -2687,7 +2660,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -2695,7 +2668,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -2703,7 +2676,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -2711,7 +2684,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -2719,7 +2692,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B37">
         <v>1</v>

--- a/data/Robotics_Companies_Careers.xlsx
+++ b/data/Robotics_Companies_Careers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham09\Downloads\job-search-agent\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5714A0-967A-44E1-8DF6-8D4B0D93F1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0AAA543-F030-44F5-9ABA-7629CED47E2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
